--- a/Data_file/Product_service.xlsx
+++ b/Data_file/Product_service.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7452" uniqueCount="3721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7511" uniqueCount="3730">
   <si>
     <t>Internal Reference</t>
   </si>
@@ -11185,6 +11185,33 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>ค่าแรงงานเหมาบันได-เชื่อมโครง แบบบ้าน TYPE C/FOREST/B4/BLOJ001846</t>
+  </si>
+  <si>
+    <t>ค่าแรงงานเหมาบันได-เชื่อมราว แบบบ้าน TYPE C/FOREST/V30/BLOJ001853</t>
+  </si>
+  <si>
+    <t>ค่าแรงงานเชื่อมโครงเหล็ก MOGEN ขนาด 32x295x295 mm. สีขาว</t>
+  </si>
+  <si>
+    <t>ค่าแรงงานเหมาบันได-ค่าติดราว แบบบ้าน 1A/PF อ่อนนุช เฟส 8#34</t>
+  </si>
+  <si>
+    <t>ค่าจ้างปิดผิว ไม้ PB กันชื้น 15 มิล ปิดผิว 2 หน้า PP35</t>
+  </si>
+  <si>
+    <t>ค่าบริการ GPS แผนกจัดส่ง ประจำเดือน 1-12/2568 ทะเบียน 82-3485</t>
+  </si>
+  <si>
+    <t>ค่าแรงงานเหมาบันได-ติดตั้งห้องใต้ แบบบ้าน XL/S GATEปทุม2/40</t>
+  </si>
+  <si>
+    <t>ค่าแรงงานเหมาบันได-เก็บซีลิโคน แบบบ้าน 203/มัณฑนา 100+บางขุนเทียน/T1</t>
+  </si>
+  <si>
+    <t>ค่าแรงเหมาบันได-ค่าติดราว แบบบ้าน 474/N9-3/F7</t>
   </si>
 </sst>
 </file>
@@ -11228,11 +11255,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11538,10 +11568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1863"/>
+  <dimension ref="A1:D1880"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A1847" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1875" sqref="A1875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37632,6 +37662,244 @@
         <v>3720</v>
       </c>
     </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1864" s="3">
+        <v>5166007</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1864" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1865" s="3">
+        <v>5166008</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1865" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1866" s="3">
+        <v>5166014</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1866" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1867" s="3">
+        <v>5166015</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1867" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1868" s="3">
+        <v>5166019</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1868" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1869" s="3" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D1869" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1870" s="3" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D1870" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1871" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D1871" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1872" s="3">
+        <v>5228801</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1872" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1873" s="3">
+        <v>5228803</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1873" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1874" s="3">
+        <v>5228804</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1874" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1875" s="3">
+        <v>533104</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D1875" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1876" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D1876" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1877" s="3" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D1877" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1878" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1878" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1879" s="3" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1879" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1880" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1880" s="2" t="s">
+        <v>3720</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
